--- a/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_per_day_fixed_period_1_sine_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_per_day_fixed_period_1_sine_05_.xlsx
@@ -581,53 +581,53 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>22.97000000000015</v>
+        <v>22.78000000000012</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1.435171981256644e-10</v>
+        <v>1.581843545039874e-09</v>
       </c>
       <c r="I2" t="n">
-        <v>1.435171981256644e-10</v>
+        <v>1.581843545039874e-09</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>51.39535837169463</v>
+        <v>40.29227895356659</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[38.177970408604196, 64.61274633478506]</t>
+          <t>[28.8143584620937, 51.77019944503949]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>6.064204693956299e-10</v>
+        <v>8.015082153534081e-09</v>
       </c>
       <c r="O2" t="n">
-        <v>6.064204693956299e-10</v>
+        <v>8.015082153534081e-09</v>
       </c>
       <c r="P2" t="n">
-        <v>1.654131867655886</v>
+        <v>1.717026615475502</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.364816027685655, 1.9434477076261176]</t>
+          <t>[1.3899739268135018, 2.0440793041375027]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>5.10702591327572e-15</v>
+        <v>8.79296635503124e-14</v>
       </c>
       <c r="S2" t="n">
-        <v>5.10702591327572e-15</v>
+        <v>8.79296635503124e-14</v>
       </c>
       <c r="T2" t="n">
-        <v>59.6525593921774</v>
+        <v>45.97727604349878</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[51.534773812351474, 67.77034497200333]</t>
+          <t>[39.047148434534705, 52.90740365246285]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -637,13 +637,13 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>16.92284284284296</v>
+        <v>16.55483483483492</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.86516516516527</v>
+        <v>15.36908908908917</v>
       </c>
       <c r="Z2" t="n">
-        <v>17.98052052052064</v>
+        <v>17.74058058058068</v>
       </c>
     </row>
     <row r="3">
@@ -667,53 +667,53 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>22.97000000000015</v>
+        <v>22.78000000000012</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>2.384425989987449e-12</v>
+        <v>1.436527852227698e-08</v>
       </c>
       <c r="I3" t="n">
-        <v>2.384425989987449e-12</v>
+        <v>1.436527852227698e-08</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>48.69365330374244</v>
+        <v>43.07523644324505</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[37.02160011562951, 60.36570649185536]</t>
+          <t>[27.997743589372874, 58.15272929711723]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>9.013456647721796e-11</v>
+        <v>7.225576008629275e-07</v>
       </c>
       <c r="O3" t="n">
-        <v>9.013456647721796e-11</v>
+        <v>7.225576008629275e-07</v>
       </c>
       <c r="P3" t="n">
-        <v>1.893131909370425</v>
+        <v>2.018921405009657</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.6289739685280384, 2.157289850212811]</t>
+          <t>[1.6289739685280402, 2.408868841491273]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.376676550535194e-13</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1.376676550535194e-13</v>
       </c>
       <c r="T3" t="n">
-        <v>53.67471220814311</v>
+        <v>55.74545818286317</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[46.93307788546635, 60.41634653081987]</t>
+          <t>[47.58854491266764, 63.902371453058706]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -723,13 +723,13 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>16.04910910910922</v>
+        <v>15.46030030030038</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.0834034034035</v>
+        <v>14.0465265265266</v>
       </c>
       <c r="Z3" t="n">
-        <v>17.01481481481493</v>
+        <v>16.87407407407417</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>22.97000000000015</v>
+        <v>22.78000000000012</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1.666364757291205e-08</v>
+        <v>1.204044450808794e-07</v>
       </c>
       <c r="I4" t="n">
-        <v>1.666364757291205e-08</v>
+        <v>1.204044450808794e-07</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>48.45695920346657</v>
+        <v>41.78598805487752</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[30.470751723808995, 66.44316668312416]</t>
+          <t>[24.969888547965255, 58.60208756178979]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>2.199320423779128e-06</v>
+        <v>9.053073340092865e-06</v>
       </c>
       <c r="O4" t="n">
-        <v>2.199320423779128e-06</v>
+        <v>9.053073340092865e-06</v>
       </c>
       <c r="P4" t="n">
-        <v>2.559816236258349</v>
+        <v>2.572395185822273</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[2.182447749340657, 2.937184723176042]</t>
+          <t>[2.157289850212811, 2.987500521431735]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="T4" t="n">
-        <v>58.79263169318685</v>
+        <v>47.78013341195597</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[49.36193227247321, 68.22333111390049]</t>
+          <t>[38.91898093308438, 56.64128589082757]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>3.68594044175552e-14</v>
       </c>
       <c r="W4" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>3.68594044175552e-14</v>
       </c>
       <c r="X4" t="n">
-        <v>13.61185185185194</v>
+        <v>13.45365365365373</v>
       </c>
       <c r="Y4" t="n">
-        <v>12.23227227227236</v>
+        <v>11.94866866866873</v>
       </c>
       <c r="Z4" t="n">
-        <v>14.99143143143153</v>
+        <v>14.95863863863872</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>22.97000000000015</v>
+        <v>22.78000000000012</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>4.933675024076933e-09</v>
+        <v>1.284551159885794e-07</v>
       </c>
       <c r="I5" t="n">
-        <v>4.933675024076933e-09</v>
+        <v>1.284551159885794e-07</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>43.4937205561466</v>
+        <v>40.69510704158416</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[28.31460498984287, 58.67283612245033]</t>
+          <t>[23.908066547910394, 57.48214753525792]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>6.818881888026596e-07</v>
+        <v>1.358579156285344e-05</v>
       </c>
       <c r="O5" t="n">
-        <v>6.818881888026596e-07</v>
+        <v>1.358579156285344e-05</v>
       </c>
       <c r="P5" t="n">
-        <v>2.446605690183042</v>
+        <v>2.371131992799503</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[2.1069740519571187, 2.7862373284089657]</t>
+          <t>[1.9811845563178876, 2.7610794292811187]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="T5" t="n">
-        <v>53.47780686482005</v>
+        <v>53.25320591604627</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[45.44619817204333, 61.50941555759676]</t>
+          <t>[44.66644945063345, 61.83996238145909]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="X5" t="n">
-        <v>14.02572572572582</v>
+        <v>14.18334334334342</v>
       </c>
       <c r="Y5" t="n">
-        <v>12.78410410410419</v>
+        <v>12.76956956956964</v>
       </c>
       <c r="Z5" t="n">
-        <v>15.26734734734745</v>
+        <v>15.5971171171172</v>
       </c>
     </row>
     <row r="6">
@@ -925,39 +925,39 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>22.97000000000015</v>
+        <v>22.78000000000012</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1.364202719678076e-07</v>
+        <v>7.450640104877948e-11</v>
       </c>
       <c r="I6" t="n">
-        <v>1.364202719678076e-07</v>
+        <v>7.450640104877948e-11</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>44.13973059479965</v>
+        <v>42.06389503291813</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[28.01433586849427, 60.26512532110503]</t>
+          <t>[31.432043897670837, 52.695746168165414]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>1.638655433122693e-06</v>
+        <v>3.829605521588064e-10</v>
       </c>
       <c r="O6" t="n">
-        <v>1.638655433122693e-06</v>
+        <v>3.829605521588064e-10</v>
       </c>
       <c r="P6" t="n">
-        <v>2.811395227536811</v>
+        <v>3.062974218815274</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[2.371131992799503, 3.2516584622741194]</t>
+          <t>[2.7736583788450426, 3.3522900587855053]</t>
         </is>
       </c>
       <c r="R6" t="n">
@@ -967,27 +967,27 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>46.70272966248125</v>
+        <v>50.90027954476381</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[37.25189673066707, 56.15356259429544]</t>
+          <t>[44.11782595834609, 57.682733131181536]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>6.02629057766535e-13</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>6.02629057766535e-13</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>12.69213213213222</v>
+        <v>11.6750350350351</v>
       </c>
       <c r="Y6" t="n">
-        <v>11.0826226226227</v>
+        <v>10.62610610610616</v>
       </c>
       <c r="Z6" t="n">
-        <v>14.30164164164174</v>
+        <v>12.72396396396403</v>
       </c>
     </row>
     <row r="7">
@@ -1011,39 +1011,39 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>22.97000000000015</v>
+        <v>22.78000000000012</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>3.543408344519605e-08</v>
+        <v>4.152489463393749e-11</v>
       </c>
       <c r="I7" t="n">
-        <v>3.543408344519605e-08</v>
+        <v>4.152489463393749e-11</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>41.85051288561182</v>
+        <v>53.83076534040713</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[28.97615461750462, 54.72487115371902]</t>
+          <t>[39.212852125756896, 68.44867855505736]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>4.795634445109442e-08</v>
+        <v>2.463794723794877e-09</v>
       </c>
       <c r="O7" t="n">
-        <v>4.795634445109442e-08</v>
+        <v>2.463794723794877e-09</v>
       </c>
       <c r="P7" t="n">
-        <v>3.100711067507043</v>
+        <v>-2.817684702318774</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[2.72334258058935, 3.478079554424736]</t>
+          <t>[-3.119579491852928, -2.5157899127846193]</t>
         </is>
       </c>
       <c r="R7" t="n">
@@ -1053,11 +1053,11 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>60.97839049873902</v>
+        <v>58.67572383918532</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[52.498781912602766, 69.45799908487528]</t>
+          <t>[50.239593714289796, 67.11185396408084]</t>
         </is>
       </c>
       <c r="V7" t="n">
@@ -1067,13 +1067,13 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>11.63445445445453</v>
+        <v>10.21565565565571</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.25487487487494</v>
+        <v>9.121121121121172</v>
       </c>
       <c r="Z7" t="n">
-        <v>13.01403403403412</v>
+        <v>11.31019019019025</v>
       </c>
     </row>
     <row r="8">
@@ -1097,39 +1097,39 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.80000000000059</v>
+        <v>25.75000000000059</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1.364434121242653e-10</v>
+        <v>8.117933214535356e-09</v>
       </c>
       <c r="I8" t="n">
-        <v>1.364434121242653e-10</v>
+        <v>8.117933214535356e-09</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>48.38946167338048</v>
+        <v>45.6968995170161</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[33.92831885029796, 62.850604496463]</t>
+          <t>[29.594240823778854, 61.799558210253345]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>2.482439320772301e-08</v>
+        <v>8.235433479608645e-07</v>
       </c>
       <c r="O8" t="n">
-        <v>2.482439320772301e-08</v>
+        <v>8.235433479608645e-07</v>
       </c>
       <c r="P8" t="n">
-        <v>-2.603842559732081</v>
+        <v>-2.578684660604235</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-2.9183162988301583, -2.2893688206340035]</t>
+          <t>[-2.918316298830159, -2.2390530223783105]</t>
         </is>
       </c>
       <c r="R8" t="n">
@@ -1139,11 +1139,11 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>52.98025710636824</v>
+        <v>54.12111062348814</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[45.456374212211806, 60.504140000524664]</t>
+          <t>[45.83775022897474, 62.404471018001544]</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>10.69189189189214</v>
+        <v>10.56806806806831</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.400600600600818</v>
+        <v>9.176176176176384</v>
       </c>
       <c r="Z8" t="n">
-        <v>11.98318318318346</v>
+        <v>11.95995995996024</v>
       </c>
     </row>
     <row r="9">
@@ -1183,39 +1183,39 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>25.80000000000059</v>
+        <v>25.75000000000059</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>6.931532159359932e-08</v>
+        <v>1.55464497941793e-08</v>
       </c>
       <c r="I9" t="n">
-        <v>6.931532159359932e-08</v>
+        <v>1.55464497941793e-08</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>48.12009343559665</v>
+        <v>44.9097139967208</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[32.97824047438399, 63.261946396809314]</t>
+          <t>[31.795605384367867, 58.023822609073726]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>7.921057321169656e-08</v>
+        <v>1.446905772972684e-08</v>
       </c>
       <c r="O9" t="n">
-        <v>7.921057321169656e-08</v>
+        <v>1.446905772972684e-08</v>
       </c>
       <c r="P9" t="n">
-        <v>3.08813211794312</v>
+        <v>3.075553168379197</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[2.735921530153273, 3.440342705732967]</t>
+          <t>[2.7485004797171966, 3.4026058570411966]</t>
         </is>
       </c>
       <c r="R9" t="n">
@@ -1225,27 +1225,27 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>46.55388539930811</v>
+        <v>53.57406114971484</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[37.00554000533446, 56.10223079328177]</t>
+          <t>[45.19870024358791, 61.94942205584178]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>9.159339953157541e-13</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="W9" t="n">
-        <v>9.159339953157541e-13</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="X9" t="n">
-        <v>13.11951951951982</v>
+        <v>13.14564564564595</v>
       </c>
       <c r="Y9" t="n">
-        <v>11.67327327327354</v>
+        <v>11.80530530530558</v>
       </c>
       <c r="Z9" t="n">
-        <v>14.5657657657661</v>
+        <v>14.48598598598631</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>25.80000000000059</v>
+        <v>25.75000000000059</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>2.861673009668664e-09</v>
+        <v>7.209498779081613e-07</v>
       </c>
       <c r="I10" t="n">
-        <v>2.861673009668664e-09</v>
+        <v>7.209498779081613e-07</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>48.22629444472579</v>
+        <v>41.39047140922528</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[31.853380028149473, 64.5992088613021]</t>
+          <t>[24.305358706681176, 58.47558411176938]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>3.931948335811342e-07</v>
+        <v>1.373092974188417e-05</v>
       </c>
       <c r="O10" t="n">
-        <v>3.931948335811342e-07</v>
+        <v>1.373092974188417e-05</v>
       </c>
       <c r="P10" t="n">
-        <v>2.685605731897581</v>
+        <v>2.735921530153273</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[2.3459740936716567, 3.0252373701235054]</t>
+          <t>[2.270500396288118, 3.201342664018428]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.998401444325282e-15</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>1.998401444325282e-15</v>
       </c>
       <c r="T10" t="n">
-        <v>57.76990040699172</v>
+        <v>54.09675540641874</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[49.12026723528889, 66.41953357869455]</t>
+          <t>[44.75563404995437, 63.43787676288311]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>3.33066907387547e-15</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>3.33066907387547e-15</v>
       </c>
       <c r="X10" t="n">
-        <v>14.77237237237271</v>
+        <v>14.53753753753787</v>
       </c>
       <c r="Y10" t="n">
-        <v>13.37777777777808</v>
+        <v>12.63013013013042</v>
       </c>
       <c r="Z10" t="n">
-        <v>16.16696696696734</v>
+        <v>16.44494494494532</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>25.80000000000059</v>
+        <v>25.75000000000059</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>4.944485025859535e-07</v>
+        <v>7.967813913101196e-07</v>
       </c>
       <c r="I11" t="n">
-        <v>4.944485025859535e-07</v>
+        <v>7.967813913101196e-07</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>42.78219226443569</v>
+        <v>42.40803224921064</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[24.561713490237764, 61.00267103863361]</t>
+          <t>[23.302522548323722, 61.51354195009756]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>2.253535324880929e-05</v>
+        <v>5.234201992054821e-05</v>
       </c>
       <c r="O11" t="n">
-        <v>2.253535324880929e-05</v>
+        <v>5.234201992054821e-05</v>
       </c>
       <c r="P11" t="n">
-        <v>2.119553001521041</v>
+        <v>2.257921446724195</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[1.6792897667837314, 2.5598162362583503]</t>
+          <t>[1.8176582119868865, 2.6981846814615036]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>1.353583911622991e-12</v>
+        <v>1.865174681370263e-13</v>
       </c>
       <c r="S11" t="n">
-        <v>1.353583911622991e-12</v>
+        <v>1.865174681370263e-13</v>
       </c>
       <c r="T11" t="n">
-        <v>52.23695033894062</v>
+        <v>53.56901012651866</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[42.3507304436004, 62.12317023428085]</t>
+          <t>[43.63597074225309, 63.50204951078423]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>7.127631818093505e-14</v>
+        <v>3.663735981263017e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>7.127631818093505e-14</v>
+        <v>3.663735981263017e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>17.09669669669709</v>
+        <v>16.49649649649687</v>
       </c>
       <c r="Y11" t="n">
-        <v>15.28888888888924</v>
+        <v>14.69219219219253</v>
       </c>
       <c r="Z11" t="n">
-        <v>18.90450450450495</v>
+        <v>18.30080080080122</v>
       </c>
     </row>
     <row r="12">
@@ -1441,53 +1441,53 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>25.80000000000059</v>
+        <v>25.75000000000059</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>4.267628839205173e-08</v>
+        <v>1.511530015596563e-07</v>
       </c>
       <c r="I12" t="n">
-        <v>4.267628839205173e-08</v>
+        <v>1.511530015596563e-07</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>44.4809966279081</v>
+        <v>42.08153667730618</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[28.894810898719733, 60.06718235709646]</t>
+          <t>[28.177526827457548, 55.9855465271548]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>7.378347735009783e-07</v>
+        <v>2.249871131621006e-07</v>
       </c>
       <c r="O12" t="n">
-        <v>7.378347735009783e-07</v>
+        <v>2.249871131621006e-07</v>
       </c>
       <c r="P12" t="n">
-        <v>1.767342413731195</v>
+        <v>1.591237119836272</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[1.3522370781217337, 2.182447749340657]</t>
+          <t>[1.1635528346628856, 2.0189214050096584]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>5.092415378271653e-11</v>
+        <v>1.899690627027439e-09</v>
       </c>
       <c r="S12" t="n">
-        <v>5.092415378271653e-11</v>
+        <v>1.899690627027439e-09</v>
       </c>
       <c r="T12" t="n">
-        <v>63.67310244984816</v>
+        <v>59.82412835389133</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[54.41240378970582, 72.9338011099905]</t>
+          <t>[50.62119959405666, 69.02705711372599]</t>
         </is>
       </c>
       <c r="V12" t="n">
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>18.54294294294337</v>
+        <v>19.22872872872917</v>
       </c>
       <c r="Y12" t="n">
-        <v>16.83843843843883</v>
+        <v>17.47597597597637</v>
       </c>
       <c r="Z12" t="n">
-        <v>20.24744744744791</v>
+        <v>20.98148148148196</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>25.80000000000059</v>
+        <v>25.75000000000059</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>8.84779549625847e-08</v>
+        <v>6.538848504877848e-07</v>
       </c>
       <c r="I13" t="n">
-        <v>8.84779549625847e-08</v>
+        <v>6.538848504877848e-07</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>42.94570399551652</v>
+        <v>42.17324062692521</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[27.98648721095364, 57.904920780079394]</t>
+          <t>[25.810705141746936, 58.53577611210348]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>6.566890831116723e-07</v>
+        <v>4.854496596928826e-06</v>
       </c>
       <c r="O13" t="n">
-        <v>6.566890831116723e-07</v>
+        <v>4.854496596928826e-06</v>
       </c>
       <c r="P13" t="n">
-        <v>1.46544762419704</v>
+        <v>1.729605565039425</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[1.0755001877154236, 1.8553950606786564]</t>
+          <t>[1.2516054816103486, 2.207605648468502]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>1.471213151305051e-09</v>
+        <v>3.82022813383287e-09</v>
       </c>
       <c r="S13" t="n">
-        <v>1.471213151305051e-09</v>
+        <v>3.82022813383287e-09</v>
       </c>
       <c r="T13" t="n">
-        <v>54.64314165026706</v>
+        <v>54.54821357774586</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[45.5103952360145, 63.77588806451962]</t>
+          <t>[44.64159772931639, 64.45482942617534]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>1.110223024625157e-15</v>
+        <v>1.84297022087776e-14</v>
       </c>
       <c r="W13" t="n">
-        <v>1.110223024625157e-15</v>
+        <v>1.84297022087776e-14</v>
       </c>
       <c r="X13" t="n">
-        <v>19.78258258258304</v>
+        <v>18.66166166166209</v>
       </c>
       <c r="Y13" t="n">
-        <v>18.1813813813818</v>
+        <v>16.70270270270309</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.38378378378428</v>
+        <v>20.62062062062109</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_per_day_fixed_period_1_sine_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_per_day_fixed_period_1_sine_05_.xlsx
@@ -581,53 +581,53 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>22.78000000000012</v>
+        <v>22.74000000000012</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1.581843545039874e-09</v>
+        <v>9.611727080915955e-09</v>
       </c>
       <c r="I2" t="n">
-        <v>1.581843545039874e-09</v>
+        <v>9.611727080915955e-09</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>40.29227895356659</v>
+        <v>45.16867660186512</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[28.8143584620937, 51.77019944503949]</t>
+          <t>[31.833478442600274, 58.50387476112997]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>8.015082153534081e-09</v>
+        <v>1.87139446161666e-08</v>
       </c>
       <c r="O2" t="n">
-        <v>8.015082153534081e-09</v>
+        <v>1.87139446161666e-08</v>
       </c>
       <c r="P2" t="n">
-        <v>1.717026615475502</v>
+        <v>1.603816069400194</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.3899739268135018, 2.0440793041375027]</t>
+          <t>[1.2893423303021159, 1.9182898084982725]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>8.79296635503124e-14</v>
+        <v>2.229327833447314e-13</v>
       </c>
       <c r="S2" t="n">
-        <v>8.79296635503124e-14</v>
+        <v>2.229327833447314e-13</v>
       </c>
       <c r="T2" t="n">
-        <v>45.97727604349878</v>
+        <v>54.53000040873555</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[39.047148434534705, 52.90740365246285]</t>
+          <t>[46.22177466195812, 62.838226155512984]</t>
         </is>
       </c>
       <c r="V2" t="n">
@@ -637,13 +637,13 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>16.55483483483492</v>
+        <v>16.93549549549558</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.36908908908917</v>
+        <v>15.79735735735744</v>
       </c>
       <c r="Z2" t="n">
-        <v>17.74058058058068</v>
+        <v>18.07363363363373</v>
       </c>
     </row>
     <row r="3">
@@ -667,53 +667,53 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>22.78000000000012</v>
+        <v>22.74000000000012</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1.436527852227698e-08</v>
+        <v>7.563961679224462e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>1.436527852227698e-08</v>
+        <v>7.563961679224462e-10</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>43.07523644324505</v>
+        <v>47.07178666395215</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[27.997743589372874, 58.15272929711723]</t>
+          <t>[33.582283384097465, 60.56128994380683]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>7.225576008629275e-07</v>
+        <v>9.253443344903189e-09</v>
       </c>
       <c r="O3" t="n">
-        <v>7.225576008629275e-07</v>
+        <v>9.253443344903189e-09</v>
       </c>
       <c r="P3" t="n">
-        <v>2.018921405009657</v>
+        <v>1.83023716155081</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.6289739685280402, 2.408868841491273]</t>
+          <t>[1.50318447288881, 2.157289850212811]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>1.376676550535194e-13</v>
+        <v>1.088018564132653e-14</v>
       </c>
       <c r="S3" t="n">
-        <v>1.376676550535194e-13</v>
+        <v>1.088018564132653e-14</v>
       </c>
       <c r="T3" t="n">
-        <v>55.74545818286317</v>
+        <v>59.9705908825712</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[47.58854491266764, 63.902371453058706]</t>
+          <t>[52.07379069664195, 67.86739106850045]</t>
         </is>
       </c>
       <c r="V3" t="n">
@@ -723,13 +723,13 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>15.46030030030038</v>
+        <v>16.11603603603612</v>
       </c>
       <c r="Y3" t="n">
-        <v>14.0465265265266</v>
+        <v>14.93237237237245</v>
       </c>
       <c r="Z3" t="n">
-        <v>16.87407407407417</v>
+        <v>17.29969969969979</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>22.78000000000012</v>
+        <v>22.74000000000012</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1.204044450808794e-07</v>
+        <v>1.750197764494033e-10</v>
       </c>
       <c r="I4" t="n">
-        <v>1.204044450808794e-07</v>
+        <v>1.750197764494033e-10</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>41.78598805487752</v>
+        <v>49.51997034538771</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[24.969888547965255, 58.60208756178979]</t>
+          <t>[33.80562907714733, 65.2343116136281]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>9.053073340092865e-06</v>
+        <v>9.522789823357414e-08</v>
       </c>
       <c r="O4" t="n">
-        <v>9.053073340092865e-06</v>
+        <v>9.522789823357414e-08</v>
       </c>
       <c r="P4" t="n">
-        <v>2.572395185822273</v>
+        <v>2.308237244979888</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[2.157289850212811, 2.987500521431735]</t>
+          <t>[2.006342455445733, 2.610132034514042]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>47.78013341195597</v>
+        <v>63.92710890561035</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[38.91898093308438, 56.64128589082757]</t>
+          <t>[55.86762907392083, 71.98658873729988]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>3.68594044175552e-14</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>3.68594044175552e-14</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>13.45365365365373</v>
+        <v>14.38606606606614</v>
       </c>
       <c r="Y4" t="n">
-        <v>11.94866866866873</v>
+        <v>13.29345345345352</v>
       </c>
       <c r="Z4" t="n">
-        <v>14.95863863863872</v>
+        <v>15.47867867867876</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>22.78000000000012</v>
+        <v>22.74000000000012</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1.284551159885794e-07</v>
+        <v>1.034385673892579e-06</v>
       </c>
       <c r="I5" t="n">
-        <v>1.284551159885794e-07</v>
+        <v>1.034385673892579e-06</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>40.69510704158416</v>
+        <v>37.86587323529049</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[23.908066547910394, 57.48214753525792]</t>
+          <t>[20.738946464133583, 54.99280000644739]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1.358579156285344e-05</v>
+        <v>5.541910026751751e-05</v>
       </c>
       <c r="O5" t="n">
-        <v>1.358579156285344e-05</v>
+        <v>5.541910026751751e-05</v>
       </c>
       <c r="P5" t="n">
-        <v>2.371131992799503</v>
+        <v>2.584974135386196</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[1.9811845563178876, 2.7610794292811187]</t>
+          <t>[2.132131951084965, 3.037816319687427]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>5.551115123125783e-15</v>
       </c>
       <c r="S5" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>5.551115123125783e-15</v>
       </c>
       <c r="T5" t="n">
-        <v>53.25320591604627</v>
+        <v>55.4495151919367</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[44.66644945063345, 61.83996238145909]</t>
+          <t>[46.56913545673369, 64.32989492713972]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="W5" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="X5" t="n">
-        <v>14.18334334334342</v>
+        <v>13.38450450450457</v>
       </c>
       <c r="Y5" t="n">
-        <v>12.76956956956964</v>
+        <v>11.74558558558565</v>
       </c>
       <c r="Z5" t="n">
-        <v>15.5971171171172</v>
+        <v>15.0234234234235</v>
       </c>
     </row>
     <row r="6">
@@ -925,39 +925,39 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>22.78000000000012</v>
+        <v>22.74000000000012</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>7.450640104877948e-11</v>
+        <v>5.166314043236753e-10</v>
       </c>
       <c r="I6" t="n">
-        <v>7.450640104877948e-11</v>
+        <v>5.166314043236753e-10</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>42.06389503291813</v>
+        <v>44.29985940438157</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[31.432043897670837, 52.695746168165414]</t>
+          <t>[32.43866494509944, 56.1610538636637]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.829605521588064e-10</v>
+        <v>1.723455600455281e-09</v>
       </c>
       <c r="O6" t="n">
-        <v>3.829605521588064e-10</v>
+        <v>1.723455600455281e-09</v>
       </c>
       <c r="P6" t="n">
-        <v>3.062974218815274</v>
+        <v>3.08813211794312</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[2.7736583788450426, 3.3522900587855053]</t>
+          <t>[2.7862373284089657, 3.3900269074772744]</t>
         </is>
       </c>
       <c r="R6" t="n">
@@ -967,11 +967,11 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>50.90027954476381</v>
+        <v>51.6246607310376</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[44.11782595834609, 57.682733131181536]</t>
+          <t>[43.96957801942737, 59.279743442647835]</t>
         </is>
       </c>
       <c r="V6" t="n">
@@ -981,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>11.6750350350351</v>
+        <v>11.56348348348354</v>
       </c>
       <c r="Y6" t="n">
-        <v>10.62610610610616</v>
+        <v>10.47087087087092</v>
       </c>
       <c r="Z6" t="n">
-        <v>12.72396396396403</v>
+        <v>12.65609609609616</v>
       </c>
     </row>
     <row r="7">
@@ -1011,39 +1011,39 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>22.78000000000012</v>
+        <v>22.74000000000012</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>4.152489463393749e-11</v>
+        <v>7.465425377883861e-08</v>
       </c>
       <c r="I7" t="n">
-        <v>4.152489463393749e-11</v>
+        <v>7.465425377883861e-08</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>53.83076534040713</v>
+        <v>46.96043847055235</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[39.212852125756896, 68.44867855505736]</t>
+          <t>[31.259238883185454, 62.66163805791924]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>2.463794723794877e-09</v>
+        <v>2.87697004441867e-07</v>
       </c>
       <c r="O7" t="n">
-        <v>2.463794723794877e-09</v>
+        <v>2.87697004441867e-07</v>
       </c>
       <c r="P7" t="n">
-        <v>-2.817684702318774</v>
+        <v>-3.069263693597235</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-3.119579491852928, -2.5157899127846193]</t>
+          <t>[-3.4843690292066967, -2.6541583579877734]</t>
         </is>
       </c>
       <c r="R7" t="n">
@@ -1053,27 +1053,27 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>58.67572383918532</v>
+        <v>55.02117508063383</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[50.239593714289796, 67.11185396408084]</t>
+          <t>[45.179060079388506, 64.86329008187916]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.110223024625157e-14</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.110223024625157e-14</v>
       </c>
       <c r="X7" t="n">
-        <v>10.21565565565571</v>
+        <v>11.10822822822828</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.121121121121172</v>
+        <v>9.605885885885936</v>
       </c>
       <c r="Z7" t="n">
-        <v>11.31019019019025</v>
+        <v>12.61057057057063</v>
       </c>
     </row>
     <row r="8">
@@ -1097,39 +1097,39 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.75000000000059</v>
+        <v>25.49000000000055</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>8.117933214535356e-09</v>
+        <v>2.024926657462345e-07</v>
       </c>
       <c r="I8" t="n">
-        <v>8.117933214535356e-09</v>
+        <v>2.024926657462345e-07</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>45.6968995170161</v>
+        <v>40.67223828374407</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[29.594240823778854, 61.799558210253345]</t>
+          <t>[25.75715784971093, 55.587318717777215]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>8.235433479608645e-07</v>
+        <v>1.75869124863226e-06</v>
       </c>
       <c r="O8" t="n">
-        <v>8.235433479608645e-07</v>
+        <v>1.75869124863226e-06</v>
       </c>
       <c r="P8" t="n">
-        <v>-2.578684660604235</v>
+        <v>-2.729632055371312</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-2.918316298830159, -2.2390530223783105]</t>
+          <t>[-3.1321584414168506, -2.3271056693257735]</t>
         </is>
       </c>
       <c r="R8" t="n">
@@ -1139,11 +1139,11 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>54.12111062348814</v>
+        <v>56.83462464136446</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[45.83775022897474, 62.404471018001544]</t>
+          <t>[48.38207051297518, 65.28717876975375]</t>
         </is>
       </c>
       <c r="V8" t="n">
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>10.56806806806831</v>
+        <v>11.07373373373397</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.176176176176384</v>
+        <v>9.440740740740946</v>
       </c>
       <c r="Z8" t="n">
-        <v>11.95995995996024</v>
+        <v>12.706726726727</v>
       </c>
     </row>
     <row r="9">
@@ -1183,39 +1183,39 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>25.75000000000059</v>
+        <v>25.49000000000055</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1.55464497941793e-08</v>
+        <v>5.856935603176794e-08</v>
       </c>
       <c r="I9" t="n">
-        <v>1.55464497941793e-08</v>
+        <v>5.856935603176794e-08</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>44.9097139967208</v>
+        <v>48.66957656366746</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[31.795605384367867, 58.023822609073726]</t>
+          <t>[33.03624672154747, 64.30290640578745]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>1.446905772972684e-08</v>
+        <v>1.23824839048936e-07</v>
       </c>
       <c r="O9" t="n">
-        <v>1.446905772972684e-08</v>
+        <v>1.23824839048936e-07</v>
       </c>
       <c r="P9" t="n">
-        <v>3.075553168379197</v>
+        <v>3.037816319687427</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[2.7485004797171966, 3.4026058570411966]</t>
+          <t>[2.6730267823336575, 3.4026058570411974]</t>
         </is>
       </c>
       <c r="R9" t="n">
@@ -1225,27 +1225,27 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>53.57406114971484</v>
+        <v>51.77462417789049</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[45.19870024358791, 61.94942205584178]</t>
+          <t>[42.14414224676061, 61.405106109020366]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>4.063416270128073e-14</v>
       </c>
       <c r="W9" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>4.063416270128073e-14</v>
       </c>
       <c r="X9" t="n">
-        <v>13.14564564564595</v>
+        <v>13.16600600600629</v>
       </c>
       <c r="Y9" t="n">
-        <v>11.80530530530558</v>
+        <v>11.68610610610636</v>
       </c>
       <c r="Z9" t="n">
-        <v>14.48598598598631</v>
+        <v>14.64590590590622</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>25.75000000000059</v>
+        <v>25.49000000000055</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>7.209498779081613e-07</v>
+        <v>3.499683831620359e-08</v>
       </c>
       <c r="I10" t="n">
-        <v>7.209498779081613e-07</v>
+        <v>3.499683831620359e-08</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>41.39047140922528</v>
+        <v>43.38843935900642</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[24.305358706681176, 58.47558411176938]</t>
+          <t>[26.705483380989527, 60.07139533702331]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>1.373092974188417e-05</v>
+        <v>4.145610399852728e-06</v>
       </c>
       <c r="O10" t="n">
-        <v>1.373092974188417e-05</v>
+        <v>4.145610399852728e-06</v>
       </c>
       <c r="P10" t="n">
-        <v>2.735921530153273</v>
+        <v>2.572395185822273</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[2.270500396288118, 3.201342664018428]</t>
+          <t>[2.169868799776733, 2.974921571867813]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>1.998401444325282e-15</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="S10" t="n">
-        <v>1.998401444325282e-15</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="T10" t="n">
-        <v>54.09675540641874</v>
+        <v>54.22493499002491</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[44.75563404995437, 63.43787676288311]</t>
+          <t>[45.59302337277668, 62.856846607273134]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>3.33066907387547e-15</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="W10" t="n">
-        <v>3.33066907387547e-15</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="X10" t="n">
-        <v>14.53753753753787</v>
+        <v>15.05415415415448</v>
       </c>
       <c r="Y10" t="n">
-        <v>12.63013013013042</v>
+        <v>13.42116116116145</v>
       </c>
       <c r="Z10" t="n">
-        <v>16.44494494494532</v>
+        <v>16.68714714714751</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>25.75000000000059</v>
+        <v>25.49000000000055</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>7.967813913101196e-07</v>
+        <v>4.40695279158021e-08</v>
       </c>
       <c r="I11" t="n">
-        <v>7.967813913101196e-07</v>
+        <v>4.40695279158021e-08</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>42.40803224921064</v>
+        <v>48.06392336366455</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[23.302522548323722, 61.51354195009756]</t>
+          <t>[29.392380746600587, 66.73546598072852]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>5.234201992054821e-05</v>
+        <v>4.962167861277678e-06</v>
       </c>
       <c r="O11" t="n">
-        <v>5.234201992054821e-05</v>
+        <v>4.962167861277678e-06</v>
       </c>
       <c r="P11" t="n">
-        <v>2.257921446724195</v>
+        <v>2.207605648468503</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[1.8176582119868865, 2.6981846814615036]</t>
+          <t>[1.8050792624229643, 2.6101320345140415]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>1.865174681370263e-13</v>
+        <v>2.109423746787797e-14</v>
       </c>
       <c r="S11" t="n">
-        <v>1.865174681370263e-13</v>
+        <v>2.109423746787797e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>53.56901012651866</v>
+        <v>63.83287541178392</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[43.63597074225309, 63.50204951078423]</t>
+          <t>[53.97267682573779, 73.69307399783006]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>3.663735981263017e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>3.663735981263017e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>16.49649649649687</v>
+        <v>16.53405405405441</v>
       </c>
       <c r="Y11" t="n">
-        <v>14.69219219219253</v>
+        <v>14.90106106106138</v>
       </c>
       <c r="Z11" t="n">
-        <v>18.30080080080122</v>
+        <v>18.16704704704743</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>25.75000000000059</v>
+        <v>25.49000000000055</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1.511530015596563e-07</v>
+        <v>4.727456827002818e-06</v>
       </c>
       <c r="I12" t="n">
-        <v>1.511530015596563e-07</v>
+        <v>4.727456827002818e-06</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>42.08153667730618</v>
+        <v>40.51599559924102</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[28.177526827457548, 55.9855465271548]</t>
+          <t>[20.901084913369836, 60.13090628511221]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>2.249871131621006e-07</v>
+        <v>0.0001411488324423171</v>
       </c>
       <c r="O12" t="n">
-        <v>2.249871131621006e-07</v>
+        <v>0.0001411488324423171</v>
       </c>
       <c r="P12" t="n">
-        <v>1.591237119836272</v>
+        <v>2.169868799776733</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[1.1635528346628856, 2.0189214050096584]</t>
+          <t>[1.6792897667837305, 2.6604478327697354]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>1.899690627027439e-09</v>
+        <v>1.706745855756253e-11</v>
       </c>
       <c r="S12" t="n">
-        <v>1.899690627027439e-09</v>
+        <v>1.706745855756253e-11</v>
       </c>
       <c r="T12" t="n">
-        <v>59.82412835389133</v>
+        <v>58.86014232049187</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[50.62119959405666, 69.02705711372599]</t>
+          <t>[48.492736072525496, 69.22754856845825]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>6.661338147750939e-15</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>6.661338147750939e-15</v>
       </c>
       <c r="X12" t="n">
-        <v>19.22872872872917</v>
+        <v>16.68714714714751</v>
       </c>
       <c r="Y12" t="n">
-        <v>17.47597597597637</v>
+        <v>14.69693693693725</v>
       </c>
       <c r="Z12" t="n">
-        <v>20.98148148148196</v>
+        <v>18.67735735735777</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>25.75000000000059</v>
+        <v>25.49000000000055</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>6.538848504877848e-07</v>
+        <v>1.447465813875226e-09</v>
       </c>
       <c r="I13" t="n">
-        <v>6.538848504877848e-07</v>
+        <v>1.447465813875226e-09</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>42.17324062692521</v>
+        <v>41.02053892106119</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[25.810705141746936, 58.53577611210348]</t>
+          <t>[29.539356956807758, 52.50172088531462]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>4.854496596928826e-06</v>
+        <v>5.22101095690175e-09</v>
       </c>
       <c r="O13" t="n">
-        <v>4.854496596928826e-06</v>
+        <v>5.22101095690175e-09</v>
       </c>
       <c r="P13" t="n">
-        <v>1.729605565039425</v>
+        <v>1.50318447288881</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[1.2516054816103486, 2.207605648468502]</t>
+          <t>[1.1635528346628856, 1.8428161111147343]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>3.82022813383287e-09</v>
+        <v>1.675126704014929e-11</v>
       </c>
       <c r="S13" t="n">
-        <v>3.82022813383287e-09</v>
+        <v>1.675126704014929e-11</v>
       </c>
       <c r="T13" t="n">
-        <v>54.54821357774586</v>
+        <v>53.50774722561401</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[44.64159772931639, 64.45482942617534]</t>
+          <t>[46.126070351457216, 60.88942409977081]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>1.84297022087776e-14</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1.84297022087776e-14</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>18.66166166166209</v>
+        <v>19.39179179179221</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.70270270270309</v>
+        <v>18.01395395395434</v>
       </c>
       <c r="Z13" t="n">
-        <v>20.62062062062109</v>
+        <v>20.76962962963008</v>
       </c>
     </row>
   </sheetData>
